--- a/Assets/_TankRes/excel/level.xlsx
+++ b/Assets/_TankRes/excel/level.xlsx
@@ -56,7 +56,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>DictIntInt</t>
+    <t>[DictIntFloat]</t>
   </si>
   <si>
     <t>{201,0.1},{202,0.1},{203,0.1},{204,0.1},{205,0.1},{301,0.2},{302,0.2},{303,0.1}</t>
@@ -715,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -727,9 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1048,7 +1045,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1109,80 +1106,80 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" ht="47" customHeight="1" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>120</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" ht="47" customHeight="1" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>120</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="47" customHeight="1" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>120</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" ht="47" customHeight="1" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>120</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="47" customHeight="1" spans="1:6">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>120</v>
       </c>
       <c r="E8" s="3"/>

--- a/Assets/_TankRes/excel/level.xlsx
+++ b/Assets/_TankRes/excel/level.xlsx
@@ -56,7 +56,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>[DictIntFloat]</t>
+    <t>DictIntInt</t>
   </si>
   <si>
     <t>{201,0.1},{202,0.1},{203,0.1},{204,0.1},{205,0.1},{301,0.2},{302,0.2},{303,0.1}</t>
@@ -715,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +727,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1106,80 +1109,80 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" ht="47" customHeight="1" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>120</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" ht="47" customHeight="1" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>120</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="47" customHeight="1" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>120</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" ht="47" customHeight="1" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>120</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="47" customHeight="1" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>120</v>
       </c>
       <c r="E8" s="3"/>

--- a/Assets/_TankRes/excel/level.xlsx
+++ b/Assets/_TankRes/excel/level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="level" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>关卡唯一标识</t>
   </si>
@@ -41,6 +41,9 @@
     <t>关卡时长</t>
   </si>
   <si>
+    <t>地图类型</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -53,10 +56,16 @@
     <t>LevelDuration</t>
   </si>
   <si>
+    <t>mapTypeID</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>[DictIntFloat]</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>{201,0.1},{202,0.1},{203,0.1},{204,0.1},{205,0.1},{301,0.2},{302,0.2},{303,0.1}</t>
@@ -81,6 +90,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -715,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1053,8 +1066,9 @@
     <col min="1" max="1" width="19.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.0083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.175" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="20.175" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.175" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:6">
@@ -1070,127 +1084,153 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="30.5" customHeight="1" spans="1:6">
+    <row r="2" ht="31.25" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="30.5" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="47" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" ht="47" customHeight="1" spans="1:6">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5">
+        <v>120</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="47" customHeight="1" spans="1:6">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>120</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="47" customHeight="1" spans="1:6">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>120</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" ht="47" customHeight="1" spans="1:6">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B8" s="5">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
+        <v>120</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="47" customHeight="1" spans="1:6">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="47" customHeight="1" spans="1:6">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B9" s="5">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <v>120</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="47" customHeight="1" spans="1:6">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
-        <v>120</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="47" customHeight="1" spans="1:6">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>120</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="47" customHeight="1" spans="1:6">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <v>120</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" ht="47" customHeight="1" spans="1:6">
-      <c r="A8" s="4">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>120</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
@@ -1225,6 +1265,14 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
